--- a/biology/Médecine/Elafibranor/Elafibranor.xlsx
+++ b/biology/Médecine/Elafibranor/Elafibranor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Elafibranor (GFT505) est une molécule agoniste PPAR α/δ, développée initialement par Genfit pour le traitement des maladies métaboliques incluant le diabète, la résistance à l'insuline, la dyslipidémie, et le traitement de la NASH (stéatose hépatique non alcoolique)[1],[2],[3]. En mai 2020, la molécule ne montre aucune efficacité contre la NASH après des essais clinique de phase III.
-Après l'échec concernant NASH, Genfit poursuit les essais cliniques relatifs à l'utilisation de Elafibranor contre la Cholangite biliaire primitive[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Elafibranor (GFT505) est une molécule agoniste PPAR α/δ, développée initialement par Genfit pour le traitement des maladies métaboliques incluant le diabète, la résistance à l'insuline, la dyslipidémie, et le traitement de la NASH (stéatose hépatique non alcoolique). En mai 2020, la molécule ne montre aucune efficacité contre la NASH après des essais clinique de phase III.
+Après l'échec concernant NASH, Genfit poursuit les essais cliniques relatifs à l'utilisation de Elafibranor contre la Cholangite biliaire primitive.
 </t>
         </is>
       </c>
@@ -512,20 +524,16 @@
           <t>Effets contre la NASH</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette molécule a démontré des effets bénéfiques sur la NASH chez les rats[5], mais aussi :
-Une amélioration de marqueurs de dysfonctionnement hépatique, notamment les enzymes hépatiques : ALAT, ASAT, γGT, et ALP[6],
-Une amélioration de la sensibilité à l’insuline et de l’homéostasie du glucose[7],
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette molécule a démontré des effets bénéfiques sur la NASH chez les rats, mais aussi :
+Une amélioration de marqueurs de dysfonctionnement hépatique, notamment les enzymes hépatiques : ALAT, ASAT, γGT, et ALP,
+Une amélioration de la sensibilité à l’insuline et de l’homéostasie du glucose,
 Des effets bénéfiques sur les lipides plasmatiques, avec une réduction des taux de triglycérides et de LDL-C ainsi qu’une augmentation des taux de HDL-C,
 Des effets anti-inflammatoires,
-Des effets bénéfiques sur la NASH et la fibrose dans des modèles animaux[8],[9].        
-Tolérance au traitement
-Collectivement, tous les essais cliniques réalisés à ce jour montrent un très bon profil de tolérance. De plus, la sécurité d’emploi de l’Elafibranor est renforcée par des études toxicologiques à fortes doses chez l’animal incluant des études de carcinogénicité[10],[11],[12].
-Les résultats obtenus en 2015 sur la réversion de la NASH placent l'Elafibranor en tête des candidats au traitement de cette pathologie.
-Echec de la molécule
-Le 11 mai 2020, Genfit annonce l'échec de sa molécule en phase 3 contre la NASH[13].
-</t>
+Des effets bénéfiques sur la NASH et la fibrose dans des modèles animaux,.        </t>
         </is>
       </c>
     </row>
@@ -550,12 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Essais contre la cholangite biliaire (PBC)</t>
+          <t>Effets contre la NASH</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Après les résultats prometteurs des essais phase 2b, des essais de phase 3 sont en cours (décembre 2021) avec les premiers résultats attendus en 2023[4].
+          <t>Tolérance au traitement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collectivement, tous les essais cliniques réalisés à ce jour montrent un très bon profil de tolérance. De plus, la sécurité d’emploi de l’Elafibranor est renforcée par des études toxicologiques à fortes doses chez l’animal incluant des études de carcinogénicité.
+Les résultats obtenus en 2015 sur la réversion de la NASH placent l'Elafibranor en tête des candidats au traitement de cette pathologie.
 </t>
         </is>
       </c>
@@ -581,10 +596,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Effets contre la NASH</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Echec de la molécule</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 mai 2020, Genfit annonce l'échec de sa molécule en phase 3 contre la NASH.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elafibranor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elafibranor</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Essais contre la cholangite biliaire (PBC)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après les résultats prometteurs des essais phase 2b, des essais de phase 3 sont en cours (décembre 2021) avec les premiers résultats attendus en 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elafibranor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elafibranor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Voir Aussi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>MBX-8025 (en)
 Telmisartan</t>
